--- a/exercises/day10/GL_Feri/analysis.xlsx
+++ b/exercises/day10/GL_Feri/analysis.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A307131\git\advent-of-code-2025_FH\exercises\day10\Feri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D28A804-1275-46EC-96E8-A68A46E3E3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D7EE0A-3B49-4F18-AE95-90199AE547DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{E2D692EB-BCA9-4A7C-862B-C1A4D2F02C57}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{E2D692EB-BCA9-4A7C-862B-C1A4D2F02C57}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="45">
   <si>
     <t>solve: [3, 5, 4, 7], buttons: [[1, 3], [2, 3], [0, 2], [0, 1], [3], [2]]</t>
   </si>
@@ -142,6 +144,36 @@
   <si>
     <t>J9</t>
   </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>a=13, remove J5</t>
+  </si>
+  <si>
+    <t>c=1, remove J2</t>
+  </si>
+  <si>
+    <t>b=1, remove J4</t>
+  </si>
+  <si>
+    <t>f=23, remove J0</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +208,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +234,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +614,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -691,6 +729,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1029,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E812A3-E0E4-48D1-9349-12D3136C02CE}">
-  <dimension ref="A1:AM99"/>
+  <dimension ref="A1:AM110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I49" workbookViewId="0">
-      <selection activeCell="P86" sqref="P86"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3145,7 +3193,7 @@
         <v>15</v>
       </c>
       <c r="V63">
-        <f>SUM(P63:U63)</f>
+        <f t="shared" ref="V63:V68" si="6">SUM(P63:U63)</f>
         <v>62</v>
       </c>
     </row>
@@ -3169,7 +3217,7 @@
       <c r="T64" s="17"/>
       <c r="U64" s="18"/>
       <c r="V64">
-        <f>SUM(P64:U64)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="W64">
@@ -3206,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="V65">
-        <f>SUM(P65:U65)</f>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="W65">
@@ -3231,7 +3279,7 @@
       <c r="T66" s="4"/>
       <c r="U66" s="20"/>
       <c r="V66">
-        <f>SUM(P66:U66)</f>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="W66">
@@ -3265,7 +3313,7 @@
       </c>
       <c r="U67" s="20"/>
       <c r="V67">
-        <f>SUM(P67:U67)</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="W67">
@@ -3296,7 +3344,7 @@
         <v>15</v>
       </c>
       <c r="V68">
-        <f>SUM(P68:U68)</f>
+        <f t="shared" si="6"/>
         <v>38</v>
       </c>
       <c r="W68">
@@ -3333,7 +3381,7 @@
         <v>11</v>
       </c>
       <c r="V74" s="38" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="15:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3394,7 +3442,7 @@
         <v>37</v>
       </c>
       <c r="Y76">
-        <f>X76-W76</f>
+        <f t="shared" ref="Y76:Y82" si="7">X76-W76</f>
         <v>0</v>
       </c>
     </row>
@@ -3419,14 +3467,14 @@
       </c>
       <c r="V77" s="20"/>
       <c r="W77">
-        <f t="shared" ref="W77:W82" si="6">SUM(P77:V77)</f>
+        <f t="shared" ref="W77:W82" si="8">SUM(P77:V77)</f>
         <v>36</v>
       </c>
       <c r="X77">
         <v>36</v>
       </c>
       <c r="Y77">
-        <f>X77-W77</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3448,14 +3496,14 @@
       </c>
       <c r="V78" s="20"/>
       <c r="W78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="X78">
         <v>24</v>
       </c>
       <c r="Y78">
-        <f>X78-W78</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3477,14 +3525,14 @@
         <v>6</v>
       </c>
       <c r="W79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="X79">
         <v>26</v>
       </c>
       <c r="Y79">
-        <f>X79-W79</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3512,14 +3560,14 @@
         <v>6</v>
       </c>
       <c r="W80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="X80">
         <v>42</v>
       </c>
       <c r="Y80">
-        <f>X80-W80</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3541,14 +3589,14 @@
         <v>6</v>
       </c>
       <c r="W81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="X81">
         <v>19</v>
       </c>
       <c r="Y81">
-        <f>X81-W81</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3582,14 +3630,14 @@
         <v>6</v>
       </c>
       <c r="W82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="X82">
         <v>74</v>
       </c>
       <c r="Y82">
-        <f>X82-W82</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3619,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="V88" s="38" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="15:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3680,7 +3728,7 @@
         <v>45</v>
       </c>
       <c r="Y90">
-        <f>X90-W90</f>
+        <f t="shared" ref="Y90:Y96" si="9">X90-W90</f>
         <v>45</v>
       </c>
     </row>
@@ -3699,14 +3747,14 @@
       <c r="U91" s="4"/>
       <c r="V91" s="20"/>
       <c r="W91">
-        <f t="shared" ref="W91:W96" si="7">SUM(P91:V91)</f>
+        <f t="shared" ref="W91:W96" si="10">SUM(P91:V91)</f>
         <v>0</v>
       </c>
       <c r="X91">
         <v>36</v>
       </c>
       <c r="Y91">
-        <f>X91-W91</f>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
@@ -3731,14 +3779,14 @@
       </c>
       <c r="V92" s="20"/>
       <c r="W92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X92">
         <v>41</v>
       </c>
       <c r="Y92">
-        <f>X92-W92</f>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
     </row>
@@ -3769,14 +3817,14 @@
         <v>0</v>
       </c>
       <c r="W93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X93">
         <v>62</v>
       </c>
       <c r="Y93">
-        <f>X93-W93</f>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
     </row>
@@ -3798,14 +3846,14 @@
         <v>0</v>
       </c>
       <c r="W94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X94">
         <v>20</v>
       </c>
       <c r="Y94">
-        <f>X94-W94</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
     </row>
@@ -3827,14 +3875,14 @@
         <v>0</v>
       </c>
       <c r="W95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X95">
         <v>34</v>
       </c>
       <c r="Y95">
-        <f>X95-W95</f>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
     </row>
@@ -3859,14 +3907,14 @@
         <v>0</v>
       </c>
       <c r="W96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X96">
         <v>51</v>
       </c>
       <c r="Y96">
-        <f>X96-W96</f>
+        <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
@@ -3891,14 +3939,14 @@
         <v>0</v>
       </c>
       <c r="W97">
-        <f t="shared" ref="W97:W99" si="8">SUM(P97:V97)</f>
+        <f t="shared" ref="W97:W99" si="11">SUM(P97:V97)</f>
         <v>0</v>
       </c>
       <c r="X97">
         <v>51</v>
       </c>
       <c r="Y97">
-        <f t="shared" ref="Y97:Y99" si="9">X97-W97</f>
+        <f t="shared" ref="Y97:Y99" si="12">X97-W97</f>
         <v>51</v>
       </c>
     </row>
@@ -3929,14 +3977,14 @@
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X98">
         <v>33</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
     </row>
@@ -3961,20 +4009,2684 @@
         <v>0</v>
       </c>
       <c r="W99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X99">
         <v>55</v>
       </c>
       <c r="Y99">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
+    </row>
+    <row r="105" spans="15:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="P105" s="31"/>
+    </row>
+    <row r="106" spans="15:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="P106" s="31"/>
+    </row>
+    <row r="107" spans="15:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="P107" s="31"/>
+    </row>
+    <row r="108" spans="15:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="P108" s="31"/>
+    </row>
+    <row r="109" spans="15:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="P109" s="31"/>
+    </row>
+    <row r="110" spans="15:25" ht="18" x14ac:dyDescent="0.35">
+      <c r="P110" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD2E8CB-5EC2-4757-9BE8-E8BC0A46C9A3}">
+  <dimension ref="B2:L54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:12" ht="18" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="39">
+        <v>13</v>
+      </c>
+      <c r="D5" s="40">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40">
+        <v>34</v>
+      </c>
+      <c r="G5" s="40">
+        <v>20</v>
+      </c>
+      <c r="H5" s="40">
+        <v>23</v>
+      </c>
+      <c r="I5" s="41">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <f>SUM(C5:I5)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="16">
+        <f>C5</f>
+        <v>13</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17">
+        <f>H5</f>
+        <v>23</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6">
+        <f>SUM(C6:I6)</f>
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>37</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L12" si="0">K6-J6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <f>C5</f>
+        <v>13</v>
+      </c>
+      <c r="D7" s="4">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <f>H5</f>
+        <v>23</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7">
+        <f t="shared" ref="J7:J12" si="1">SUM(C7:I7)</f>
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <f>H5</f>
+        <v>23</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <f>G5</f>
+        <v>20</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="20">
+        <f>I5</f>
+        <v>6</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="19">
+        <f>C5</f>
+        <v>13</v>
+      </c>
+      <c r="D10" s="4">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <f>H5</f>
+        <v>23</v>
+      </c>
+      <c r="I10" s="20">
+        <f>I5</f>
+        <v>6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="19">
+        <f>C5</f>
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="20">
+        <f>I5</f>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="21">
+        <f>C5</f>
+        <v>13</v>
+      </c>
+      <c r="D12" s="22">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <f>E5</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="22">
+        <f>F5</f>
+        <v>34</v>
+      </c>
+      <c r="G12" s="22">
+        <f>G5</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23">
+        <f>I5</f>
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="K12">
+        <v>74</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="40">
+        <v>0</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1</v>
+      </c>
+      <c r="E18" s="40">
+        <v>34</v>
+      </c>
+      <c r="F18" s="40">
+        <v>20</v>
+      </c>
+      <c r="G18" s="40">
+        <v>23</v>
+      </c>
+      <c r="H18" s="41">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <f>SUM(C18:I18)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19">
+        <f>D18</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
+        <f>G18</f>
+        <v>23</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="J19">
+        <f>SUM(C19:I19)</f>
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ref="L19:L24" si="2">K19-J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
+        <f>G18</f>
+        <v>23</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="J20">
+        <f t="shared" ref="J20:J24" si="3">SUM(C20:I20)</f>
+        <v>23</v>
+      </c>
+      <c r="K20">
+        <v>23</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
+        <f>D18</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
+        <f>G18</f>
+        <v>23</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="K21">
+        <v>24</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
+        <f>F18</f>
+        <v>20</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19">
+        <f>H18</f>
+        <v>6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="K22">
+        <v>26</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="19">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
+        <f>G18</f>
+        <v>23</v>
+      </c>
+      <c r="H23" s="19">
+        <f>H18</f>
+        <v>6</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="K23">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="19">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D18</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <f>E18</f>
+        <v>34</v>
+      </c>
+      <c r="F24" s="19">
+        <f>F18</f>
+        <v>20</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19">
+        <f>H18</f>
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="K24">
+        <v>61</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C29" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="40">
+        <v>1</v>
+      </c>
+      <c r="D30" s="40">
+        <v>34</v>
+      </c>
+      <c r="E30" s="40">
+        <v>20</v>
+      </c>
+      <c r="F30" s="40">
+        <v>23</v>
+      </c>
+      <c r="G30" s="41">
+        <v>6</v>
+      </c>
+      <c r="J30">
+        <f>SUM(C30:I30)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="19">
+        <f>C30</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19">
+        <f>F30</f>
+        <v>23</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="J31">
+        <f>SUM(C31:I31)</f>
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <v>24</v>
+      </c>
+      <c r="L31">
+        <f t="shared" ref="L31:L34" si="4">K31-J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19">
+        <f>F30</f>
+        <v>23</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="J32">
+        <f t="shared" ref="J32:J34" si="5">SUM(C32:I32)</f>
+        <v>23</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="19">
+        <f>C30</f>
+        <v>1</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19">
+        <f>F30</f>
+        <v>23</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="J33">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="K33">
+        <v>24</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
+        <f>E30</f>
+        <v>20</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
+        <f>G30</f>
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="K34">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="19">
+        <f>C30</f>
+        <v>1</v>
+      </c>
+      <c r="D35" s="19">
+        <f>D30</f>
+        <v>34</v>
+      </c>
+      <c r="E35" s="19">
+        <f>E30</f>
+        <v>20</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19">
+        <f>G30</f>
+        <v>6</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35" si="6">SUM(C35:I35)</f>
+        <v>61</v>
+      </c>
+      <c r="K35">
+        <v>61</v>
+      </c>
+      <c r="L35">
+        <f>K35-J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C40" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="40">
+        <v>34</v>
+      </c>
+      <c r="D41" s="40">
+        <v>20</v>
+      </c>
+      <c r="E41" s="40">
+        <v>23</v>
+      </c>
+      <c r="F41" s="41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <f>SUM(C41:I41)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19">
+        <f>E41</f>
+        <v>23</v>
+      </c>
+      <c r="F42" s="19"/>
+      <c r="J42">
+        <f>SUM(C42:I42)</f>
+        <v>23</v>
+      </c>
+      <c r="K42">
+        <v>23</v>
+      </c>
+      <c r="L42">
+        <f t="shared" ref="L42:L43" si="7">K42-J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19">
+        <f>E41</f>
+        <v>23</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="J43">
+        <f t="shared" ref="J43" si="8">SUM(C43:I43)</f>
+        <v>23</v>
+      </c>
+      <c r="K43">
+        <v>23</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19">
+        <f>D41</f>
+        <v>20</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19">
+        <f>F41</f>
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44:J45" si="9">SUM(C44:I44)</f>
+        <v>26</v>
+      </c>
+      <c r="K44">
+        <v>26</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44" si="10">K44-J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="19">
+        <f>C41</f>
+        <v>34</v>
+      </c>
+      <c r="D45" s="19">
+        <f>D41</f>
+        <v>20</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19">
+        <f>F41</f>
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="K45">
+        <v>60</v>
+      </c>
+      <c r="L45">
+        <f>K45-J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C50" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="40">
+        <v>34</v>
+      </c>
+      <c r="D51" s="40">
+        <v>20</v>
+      </c>
+      <c r="E51" s="41">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f>SUM(C51:I51)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="J52">
+        <f>SUM(C52:I52)</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" ref="L52:L54" si="11">K52-J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19">
+        <f>D51</f>
+        <v>20</v>
+      </c>
+      <c r="E53" s="19">
+        <f>E51</f>
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53:J54" si="12">SUM(C53:I53)</f>
+        <v>26</v>
+      </c>
+      <c r="K53">
+        <v>26</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="19">
+        <f>C51</f>
+        <v>34</v>
+      </c>
+      <c r="D54" s="19">
+        <f>D51</f>
+        <v>20</v>
+      </c>
+      <c r="E54" s="19">
+        <f>E51</f>
+        <v>6</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="12"/>
+        <v>60</v>
+      </c>
+      <c r="K54">
+        <v>60</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{101C7549-C6FC-47D4-827F-333FA40C91D3}">
+  <dimension ref="A2:R50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="Q50" sqref="Q50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B3" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="40">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40">
+        <v>1</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1</v>
+      </c>
+      <c r="F4" s="40">
+        <v>1</v>
+      </c>
+      <c r="G4" s="40">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+      <c r="I4" s="40">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1</v>
+      </c>
+      <c r="K4" s="40">
+        <v>1</v>
+      </c>
+      <c r="L4" s="41">
+        <v>1</v>
+      </c>
+      <c r="M4" s="41">
+        <v>1</v>
+      </c>
+      <c r="N4" s="44">
+        <f>SUM(B4:M4)</f>
+        <v>12</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <f>D4</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19">
+        <f>H4</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19">
+        <f>K4</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="3">
+        <f>SUM(B5:M5)</f>
+        <v>6</v>
+      </c>
+      <c r="O5" s="43">
+        <v>45</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P13" si="0">O5-N5</f>
+        <v>39</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="3">
+        <f>SUM(B6:M6)</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>36</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19">
+        <f>K4</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <f>SUM(B7:M7)</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>41</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="19">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
+        <f>H4</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <f>SUM(B8:M8)</f>
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>62</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8:P9" si="1">O8-N8</f>
+        <v>55</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19">
+        <f>H4</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
+        <f>J4</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="3">
+        <f>SUM(B9:M9)</f>
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
+        <v>20</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19">
+        <f>K4</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="3">
+        <f>SUM(B10:M10)</f>
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>34</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" ref="P10:P11" si="2">O10-N10</f>
+        <v>31</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19">
+        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <f>SUM(B11:M11)</f>
+        <v>5</v>
+      </c>
+      <c r="O11" s="3">
+        <v>51</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="19">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19">
+        <f>K4</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <f>SUM(B12:M12)</f>
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <v>51</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="19">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19">
+        <f>E4</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <f>F4</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19">
+        <f>I4</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="3">
+        <f>SUM(B13:M13)</f>
+        <v>6</v>
+      </c>
+      <c r="O13" s="3">
+        <v>33</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="19">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
+        <f>G4</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19">
+        <f>K4</f>
+        <v>1</v>
+      </c>
+      <c r="L14" s="19">
+        <f>L4</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <f>M4</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="3">
+        <f>SUM(B14:M14)</f>
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>55</v>
+      </c>
+      <c r="P14" s="3">
+        <f>O14-N14</f>
+        <v>50</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <f>SUM(B5:B14)</f>
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" ref="C16:N16" si="3">SUM(C5:C14)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" ref="J16" si="4">SUM(J5:J14)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" ref="L16" si="5">SUM(L5:L14)</f>
+        <v>8</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="B21" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="40">
+        <v>1</v>
+      </c>
+      <c r="C22" s="40">
+        <v>1</v>
+      </c>
+      <c r="D22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1</v>
+      </c>
+      <c r="F22" s="40">
+        <v>1</v>
+      </c>
+      <c r="G22" s="40">
+        <v>1</v>
+      </c>
+      <c r="H22" s="40">
+        <v>1</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1</v>
+      </c>
+      <c r="J22" s="40">
+        <v>1</v>
+      </c>
+      <c r="K22" s="40">
+        <v>1</v>
+      </c>
+      <c r="L22" s="41">
+        <v>1</v>
+      </c>
+      <c r="M22" s="41">
+        <v>1</v>
+      </c>
+      <c r="N22" s="44">
+        <f>SUM(B22:M22)</f>
+        <v>12</v>
+      </c>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19">
+        <f>C22</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="45">
+        <f>D22</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19">
+        <f>F22</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <f>H22</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="19">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="3">
+        <f>SUM(B23:M23)</f>
+        <v>6</v>
+      </c>
+      <c r="O23" s="43">
+        <v>6</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" ref="P23:P31" si="6">O23-N23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <f>SUM(B24:M24)</f>
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="19">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19">
+        <f>F22</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <f>G22</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="19">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <f>SUM(B25:M25)</f>
+        <v>5</v>
+      </c>
+      <c r="O25" s="3">
+        <v>5</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="19">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <f>F22</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
+        <f>G22</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
+        <f>H22</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <f>SUM(B26:M26)</f>
+        <v>7</v>
+      </c>
+      <c r="O26" s="3">
+        <v>7</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19">
+        <f>F22</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19">
+        <f>H22</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="19"/>
+      <c r="N27" s="3">
+        <f>SUM(B27:M27)</f>
+        <v>3</v>
+      </c>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="45">
+        <f>J22</f>
+        <v>1</v>
+      </c>
+      <c r="K28" s="19">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="L28" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="19"/>
+      <c r="N28" s="3">
+        <f>SUM(B28:M28)</f>
+        <v>4</v>
+      </c>
+      <c r="O28" s="3">
+        <v>4</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19">
+        <f>G22</f>
+        <v>1</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19">
+        <f>I22</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="45"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="3">
+        <f>SUM(B29:M29)</f>
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="19">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="19">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="L30" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="3">
+        <f>SUM(B30:M30)</f>
+        <v>5</v>
+      </c>
+      <c r="O30" s="3">
+        <v>5</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="19">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="C31" s="19">
+        <f>C22</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="19">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="19">
+        <f>F22</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19">
+        <f>I22</f>
+        <v>1</v>
+      </c>
+      <c r="J31" s="45"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="3">
+        <f>SUM(B31:M31)</f>
+        <v>6</v>
+      </c>
+      <c r="O31" s="3">
+        <v>6</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="19">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
+        <f>G22</f>
+        <v>1</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="19">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="19">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="19">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
+        <f>SUM(B32:M32)</f>
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
+        <f>O32-N32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <f>SUM(B23:B32)</f>
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" ref="C34:N34" si="7">SUM(C23:C32)</f>
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B38" s="31"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B39" s="31"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B40" s="31"/>
+    </row>
+    <row r="41" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B41" s="31">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="42">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <f>SUM(B41:K41)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B42" s="31">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" ref="Q42:Q50" si="8">SUM(B42:K42)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B43" s="31">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B44" s="31">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B45" s="31">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B46" s="31">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="N46" s="42">
+        <v>3</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B47" s="31">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="18" x14ac:dyDescent="0.35">
+      <c r="B48" s="31">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>5</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B49" s="31">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>6</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B50" s="31">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
